--- a/biology/Zoologie/Dendrophidion_paucicarinatum/Dendrophidion_paucicarinatum.xlsx
+++ b/biology/Zoologie/Dendrophidion_paucicarinatum/Dendrophidion_paucicarinatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrophidion paucicarinatum[1] est une espèce de serpents de la famille des Colubridae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrophidion paucicarinatum est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[2] dans le sud du Costa Rica et dans l'ouest du Panama entre 1 000 et 1 600 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud du Costa Rica et dans l'ouest du Panama entre 1 000 et 1 600 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description Cope indique que le spécimen en sa possession mesure 123 cm dont 42 cm pour la queue. Ses yeux sont grands. Son dos est brun uniforme et sa face ventrale jaune. Cette espèce est parfois confondue avec Drymobius chloroticus[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Cope indique que le spécimen en sa possession mesure 123 cm dont 42 cm pour la queue. Ses yeux sont grands. Son dos est brun uniforme et sa face ventrale jaune. Cette espèce est parfois confondue avec Drymobius chloroticus.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1894 : Third addition to a knowledge of the Batrachia and Reptilia of Costa Rica. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 46, p. 194-206 (texte intégral).</t>
         </is>
